--- a/Examples/AcPowerSystem/IEEE_30Bus/IEEE_30Bus.xlsx
+++ b/Examples/AcPowerSystem/IEEE_30Bus/IEEE_30Bus.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\IEEE_30Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464C7EA1-0BE9-446F-8589-B67DBA1E43A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93E0B11-E3BA-48C2-A89B-98C0B6D696B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="14399" windowHeight="7372" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
-    <sheet name="Device" sheetId="3" r:id="rId2"/>
+    <sheet name="Apparatus" sheetId="3" r:id="rId2"/>
     <sheet name="NetworkLine_IEEE" sheetId="5" r:id="rId3"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
     <sheet name="Basic" sheetId="4" r:id="rId5"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This sheet summarizes the devices connected to buses.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,14 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Device type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enable (create simulink model)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,6 +226,18 @@
   </si>
   <si>
     <t>AC or DC</t>
+  </si>
+  <si>
+    <t>Apparatus type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparatus parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the apparatuses connected to buses.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -641,40 +641,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -1840,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1864,18 +1864,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -2270,12 +2270,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -2285,30 +2285,30 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -3262,10 +3262,10 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E47">
         <v>0.19</v>
@@ -3285,10 +3285,10 @@
         <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E48">
         <v>4.2999999999999997E-2</v>
@@ -3328,10 +3328,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3374,7 +3374,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -3388,7 +3388,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2">
         <v>60</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3421,7 +3421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3432,21 +3432,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>0</v>

--- a/Examples/AcPowerSystem/IEEE_30Bus/IEEE_30Bus.xlsx
+++ b/Examples/AcPowerSystem/IEEE_30Bus/IEEE_30Bus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\IEEE_30Bus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplex-Power-Systems\Examples\AcPowerSystem\IEEE_30Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93E0B11-E3BA-48C2-A89B-98C0B6D696B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E17D1B0-9E9C-4621-8CAD-420819CF853A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -245,20 +245,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -267,7 +267,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -275,7 +275,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -283,7 +283,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -291,13 +291,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -331,16 +331,16 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,19 +627,19 @@
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" customWidth="1"/>
-    <col min="10" max="10" width="11.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -677,7 +677,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -829,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -981,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1840,34 +1840,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.796875" customWidth="1"/>
-    <col min="2" max="2" width="29.53125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="12.46484375" customWidth="1"/>
-    <col min="6" max="6" width="13.53125" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" customWidth="1"/>
-    <col min="8" max="8" width="15.1328125" customWidth="1"/>
-    <col min="9" max="9" width="18.796875" customWidth="1"/>
-    <col min="10" max="10" width="18.53125" customWidth="1"/>
-    <col min="11" max="11" width="17.1328125" customWidth="1"/>
-    <col min="12" max="12" width="17.86328125" customWidth="1"/>
-    <col min="13" max="13" width="14.46484375" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1926,7 +1926,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1941,7 +1941,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1956,7 +1956,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1979,7 +1979,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -2059,7 +2059,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -2258,37 +2258,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H48" sqref="H47:H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.53125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>5</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>6</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>6</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>0.96899999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>9</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>9</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>4</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>12</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>12</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>12</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>12</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>14</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>16</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>15</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>18</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>19</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>10</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>10</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>10</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>10</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>21</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>15</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>22</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>23</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>24</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>25</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>25</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>28</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>27</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>27</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>29</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>8</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>6</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>10</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>24</v>
       </c>
@@ -3315,18 +3315,18 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -3364,20 +3364,20 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.53125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -3421,21 +3421,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>41</v>
       </c>

--- a/Examples/AcPowerSystem/IEEE_30Bus/IEEE_30Bus.xlsx
+++ b/Examples/AcPowerSystem/IEEE_30Bus/IEEE_30Bus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplex-Power-Systems\Examples\AcPowerSystem\IEEE_30Bus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\IEEE_30Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E17D1B0-9E9C-4621-8CAD-420819CF853A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3C608D-ACB9-4A2E-9F9B-DC64B645C149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -245,20 +245,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -267,7 +267,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -275,7 +275,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -283,21 +283,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -328,19 +321,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,19 +619,19 @@
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="10.86328125" customWidth="1"/>
+    <col min="10" max="10" width="11.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -677,7 +669,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -715,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -753,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -791,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -829,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -867,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -905,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -943,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -981,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1019,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1057,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1095,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1133,7 +1125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1171,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1209,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1247,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1285,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1323,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1361,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1399,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1437,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1475,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1513,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1551,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -1589,7 +1581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -1627,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -1665,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -1703,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -1741,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -1779,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -1817,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1838,36 +1830,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="2" max="2" width="29.59765625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" customWidth="1"/>
+    <col min="9" max="9" width="18.86328125" customWidth="1"/>
+    <col min="10" max="10" width="18.59765625" customWidth="1"/>
+    <col min="11" max="11" width="17.1328125" customWidth="1"/>
+    <col min="12" max="12" width="17.86328125" customWidth="1"/>
+    <col min="13" max="13" width="14.3984375" customWidth="1"/>
+    <col min="14" max="14" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1878,7 +1870,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1902,7 +1894,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1926,39 +1918,55 @@
       <c r="I4" s="7"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="8">
-        <v>100</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.05</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8">
-        <v>100</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.05</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8">
         <v>0</v>
@@ -1975,276 +1983,25 @@
       <c r="F7" s="7">
         <v>0.05</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B8" s="8">
-        <v>100</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="8">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8">
-        <v>100</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
         <v>3.5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D8" s="7">
         <v>10</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E8" s="7">
         <v>0.3</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F8" s="7">
         <v>0.05</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="8">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8">
-        <v>100</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8">
-        <v>100</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="8">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="D13" s="7">
-        <v>10</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="8">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8">
-        <v>100</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="8">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="D15" s="7">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="8">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="8">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="8">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="8">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="8">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="8">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="8">
-        <v>21</v>
-      </c>
-      <c r="B23" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="8">
-        <v>22</v>
-      </c>
-      <c r="B24" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="8">
-        <v>23</v>
-      </c>
-      <c r="B25" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="8">
-        <v>24</v>
-      </c>
-      <c r="B26" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="8">
-        <v>25</v>
-      </c>
-      <c r="B27" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="8">
-        <v>26</v>
-      </c>
-      <c r="B28" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="8">
-        <v>27</v>
-      </c>
-      <c r="B29" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="8">
-        <v>28</v>
-      </c>
-      <c r="B30" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="8">
-        <v>29</v>
-      </c>
-      <c r="B31" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="8">
-        <v>30</v>
-      </c>
-      <c r="B32" s="8">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2258,37 +2015,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H48" sqref="H47:H48"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -2311,7 +2068,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2334,7 +2091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2357,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2380,7 +2137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2403,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2426,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2449,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2472,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>5</v>
       </c>
@@ -2495,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>6</v>
       </c>
@@ -2518,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2541,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2549,7 +2306,8 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <f>D16/1000</f>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="D16">
         <v>0.20799999999999999</v>
@@ -2564,7 +2322,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>6</v>
       </c>
@@ -2572,7 +2330,8 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <f t="shared" ref="C17:C21" si="0">D17/1000</f>
+        <v>5.5600000000000007E-4</v>
       </c>
       <c r="D17">
         <v>0.55600000000000005</v>
@@ -2587,7 +2346,7 @@
         <v>0.96899999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>9</v>
       </c>
@@ -2595,7 +2354,8 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="D18">
         <v>0.20799999999999999</v>
@@ -2610,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>9</v>
       </c>
@@ -2618,7 +2378,8 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.1E-4</v>
       </c>
       <c r="D19">
         <v>0.11</v>
@@ -2633,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>4</v>
       </c>
@@ -2641,7 +2402,8 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.5599999999999999E-4</v>
       </c>
       <c r="D20">
         <v>0.25600000000000001</v>
@@ -2656,7 +2418,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>12</v>
       </c>
@@ -2664,7 +2426,8 @@
         <v>13</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.4000000000000001E-4</v>
       </c>
       <c r="D21">
         <v>0.14000000000000001</v>
@@ -2679,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>12</v>
       </c>
@@ -2702,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>12</v>
       </c>
@@ -2725,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>12</v>
       </c>
@@ -2748,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>14</v>
       </c>
@@ -2771,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>16</v>
       </c>
@@ -2794,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>15</v>
       </c>
@@ -2817,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>18</v>
       </c>
@@ -2840,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>19</v>
       </c>
@@ -2863,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>10</v>
       </c>
@@ -2886,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>10</v>
       </c>
@@ -2909,7 +2672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>10</v>
       </c>
@@ -2932,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>10</v>
       </c>
@@ -2955,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>21</v>
       </c>
@@ -2978,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>15</v>
       </c>
@@ -3001,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>22</v>
       </c>
@@ -3024,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>23</v>
       </c>
@@ -3047,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>24</v>
       </c>
@@ -3070,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>25</v>
       </c>
@@ -3093,7 +2856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>25</v>
       </c>
@@ -3116,7 +2879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>28</v>
       </c>
@@ -3124,7 +2887,8 @@
         <v>27</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <f t="shared" ref="C41" si="1">D41/1000</f>
+        <v>3.9600000000000003E-4</v>
       </c>
       <c r="D41">
         <v>0.39600000000000002</v>
@@ -3139,7 +2903,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>27</v>
       </c>
@@ -3162,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>27</v>
       </c>
@@ -3185,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>29</v>
       </c>
@@ -3208,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>8</v>
       </c>
@@ -3231,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>6</v>
       </c>
@@ -3254,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>10</v>
       </c>
@@ -3277,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>24</v>
       </c>
@@ -3315,18 +3079,18 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -3364,20 +3128,20 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -3386,7 +3150,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3394,7 +3158,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3402,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -3425,17 +3189,17 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -3444,7 +3208,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -3452,7 +3216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -3460,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -3468,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -3476,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -3484,7 +3248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3492,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3500,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3508,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -3516,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>41</v>
       </c>
